--- a/plane-web/src/main/webapp/RouteTemplate.xlsx
+++ b/plane-web/src/main/webapp/RouteTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hujunhui\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDEA workspace\planeV3.0\plane-web\src\main\webapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EBFA70-80E0-4345-BB42-6034B6393D56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8A71D8-3679-450D-8489-B95C936ECD6C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -137,23 +137,7 @@
     <t>表示和上一信息点的长度距离</t>
   </si>
   <si>
-    <t>路由名称</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>路由描述</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>二干</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>样例路由</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是样例路由的描述</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -185,6 +169,22 @@
       </rPr>
       <t>p20</t>
     </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>光缆名称</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>光缆描述</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>样例光缆</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是样例光缆的描述</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -700,7 +700,7 @@
   <dimension ref="A1:I1667"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -717,26 +717,26 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>41</v>
+      <c r="B1" s="27" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="27" t="s">
-        <v>43</v>
-      </c>
       <c r="B3" s="26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -770,7 +770,7 @@
     </row>
     <row r="5" spans="1:9" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="31" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>9</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>13</v>
